--- a/app/src/main/assets/high_2.xlsx
+++ b/app/src/main/assets/high_2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1195">
   <si>
     <t>v</t>
   </si>
@@ -3605,6 +3605,7 @@
   <fonts count="2">
     <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3619,14 +3620,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3635,11 +3629,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -3647,15 +3643,14 @@
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9274,13 +9269,13 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="512">
@@ -9288,65 +9283,65 @@
         <v>22</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="518">
@@ -9354,87 +9349,87 @@
         <v>9</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="526">
@@ -9442,32 +9437,32 @@
         <v>0</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="529">
@@ -9475,43 +9470,43 @@
         <v>0</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="533">
@@ -9519,10 +9514,10 @@
         <v>9</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="534">
@@ -9530,32 +9525,32 @@
         <v>9</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="537">
@@ -9563,10 +9558,10 @@
         <v>22</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="538">
@@ -9574,32 +9569,32 @@
         <v>22</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="541">
@@ -9610,128 +9605,128 @@
         <v>1078</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="553">
@@ -9739,10 +9734,10 @@
         <v>9</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="554">
@@ -9750,43 +9745,43 @@
         <v>9</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="558">
@@ -9794,10 +9789,10 @@
         <v>0</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="559">
@@ -9805,10 +9800,10 @@
         <v>0</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="560">
@@ -9816,43 +9811,43 @@
         <v>0</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="564">
@@ -9860,21 +9855,21 @@
         <v>0</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="566">
@@ -9882,32 +9877,32 @@
         <v>9</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="569">
@@ -9915,10 +9910,10 @@
         <v>9</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="570">
@@ -9926,10 +9921,10 @@
         <v>9</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="571">
@@ -9937,43 +9932,43 @@
         <v>9</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="575">
@@ -9981,65 +9976,65 @@
         <v>22</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1156</v>
+        <v>32</v>
       </c>
     </row>
     <row r="581">
@@ -10047,87 +10042,87 @@
         <v>22</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>32</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="589">
@@ -10135,76 +10130,76 @@
         <v>9</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>145</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="596">
@@ -10212,53 +10207,42 @@
         <v>9</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C600" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
